--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -95389,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1697"/>
+  <dimension ref="A1:R1699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95501,7 +95501,117 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>638.4500122070312</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>647.6500244140625</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>630.5499877929688</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>636.3499755859375</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>636.3499755859375</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>3797767</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>636.3499755859375</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>652.7999877929688</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>633.0999755859375</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>648.2999877929688</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>648.2999877929688</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>5138977</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1700"/>
+  <dimension ref="A1:R1701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95669,7 +95669,63 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>655.3499755859375</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>653.0999755859375</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>653.0999755859375</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>24721177</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -95725,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -95781,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -96061,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96115,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96169,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96223,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96277,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1711"/>
+  <dimension ref="A1:R1712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96289,6 +96289,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>663.4500122070312</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>671</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>660.5499877929688</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>664.5</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>664.5</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>2225645</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1712"/>
+  <dimension ref="A1:R1713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96341,7 +96341,63 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>663</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>676</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>656.9500122070312</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>656.9500122070312</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>19435956</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1713"/>
+  <dimension ref="A1:R1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95885,7 +95885,7 @@
         <v>23</v>
       </c>
       <c r="O1704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1704" t="n">
         <v>0</v>
@@ -96397,7 +96397,387 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>659.9000244140625</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>672.4500122070312</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>657.0999755859375</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>666.75</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>666.75</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>2046499</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>669.9500122070312</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>672.6500244140625</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>666</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>667.5999755859375</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>667.5999755859375</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>3781936</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>660.25</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>682.75</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>679.5</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>679.5</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>6994152</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>683</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>690.4000244140625</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>673</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>682.2000122070312</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>682.2000122070312</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>4463897</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>682.2000122070312</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>700.9500122070312</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>674.75</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>692.4500122070312</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>6725621</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>691</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>696</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>661.2999877929688</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>666.0999755859375</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>666.0999755859375</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>4949541</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>670.0999755859375</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>674.9000244140625</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>668.1500244140625</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>672.0499877929688</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>672.0499877929688</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>1932863</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -96453,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96507,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96561,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96615,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96669,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96723,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96777,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1720"/>
+  <dimension ref="A1:R1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96793,6 +96793,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>672.0499877929688</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>676.7000122070312</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>665</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>673.8499755859375</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>673.8499755859375</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>1155952</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>674.5499877929688</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>679.5499877929688</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>668.25</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>673.2999877929688</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>673.2999877929688</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>1327498</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>675.9500122070312</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>682.2000122070312</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>663</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>666.25</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>666.25</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>3891265</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>669.3499755859375</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>680</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>661.7999877929688</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>673.4500122070312</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>673.4500122070312</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>1223370</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>674</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>678.2000122070312</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>668.1500244140625</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>672.5999755859375</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>672.5999755859375</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>1225014</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1725"/>
+  <dimension ref="A1:R1727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92987,25 +92987,25 @@
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
-        <v>45369</v>
+        <v>45366</v>
       </c>
       <c r="B1653" t="n">
-        <v>581.9000244140625</v>
+        <v>583.9000244140625</v>
       </c>
       <c r="C1653" t="n">
-        <v>583.75</v>
+        <v>587.2999877929688</v>
       </c>
       <c r="D1653" t="n">
-        <v>567.7000122070312</v>
+        <v>575.0999755859375</v>
       </c>
       <c r="E1653" t="n">
-        <v>569.8499755859375</v>
+        <v>578.25</v>
       </c>
       <c r="F1653" t="n">
-        <v>569.8499755859375</v>
+        <v>578.25</v>
       </c>
       <c r="G1653" t="n">
-        <v>3332799</v>
+        <v>2181470</v>
       </c>
       <c r="H1653" t="n">
         <v>2024</v>
@@ -93014,7 +93014,7 @@
         <v>3</v>
       </c>
       <c r="J1653" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1653" t="n">
         <v>0</v>
@@ -93026,7 +93026,7 @@
         <v>0</v>
       </c>
       <c r="N1653" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1653" t="n">
         <v>0</v>
@@ -93037,31 +93037,29 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1653" t="inlineStr"/>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="B1654" t="n">
-        <v>576.5</v>
+        <v>581.9000244140625</v>
       </c>
       <c r="C1654" t="n">
-        <v>582.4000244140625</v>
+        <v>583.75</v>
       </c>
       <c r="D1654" t="n">
-        <v>558.0499877929688</v>
+        <v>567.7000122070312</v>
       </c>
       <c r="E1654" t="n">
-        <v>560.1500244140625</v>
+        <v>569.8499755859375</v>
       </c>
       <c r="F1654" t="n">
-        <v>560.1500244140625</v>
+        <v>569.8499755859375</v>
       </c>
       <c r="G1654" t="n">
-        <v>3113350</v>
+        <v>3332799</v>
       </c>
       <c r="H1654" t="n">
         <v>2024</v>
@@ -93070,7 +93068,7 @@
         <v>3</v>
       </c>
       <c r="J1654" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1654" t="n">
         <v>0</v>
@@ -93099,25 +93097,25 @@
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="B1655" t="n">
-        <v>562.2000122070312</v>
+        <v>576.5</v>
       </c>
       <c r="C1655" t="n">
-        <v>568.5</v>
+        <v>582.4000244140625</v>
       </c>
       <c r="D1655" t="n">
-        <v>553.7000122070312</v>
+        <v>558.0499877929688</v>
       </c>
       <c r="E1655" t="n">
-        <v>559.9000244140625</v>
+        <v>560.1500244140625</v>
       </c>
       <c r="F1655" t="n">
-        <v>559.9000244140625</v>
+        <v>560.1500244140625</v>
       </c>
       <c r="G1655" t="n">
-        <v>5079488</v>
+        <v>3113350</v>
       </c>
       <c r="H1655" t="n">
         <v>2024</v>
@@ -93126,7 +93124,7 @@
         <v>3</v>
       </c>
       <c r="J1655" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1655" t="n">
         <v>0</v>
@@ -93141,7 +93139,7 @@
         <v>12</v>
       </c>
       <c r="O1655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1655" t="n">
         <v>0</v>
@@ -93155,25 +93153,25 @@
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B1656" t="n">
-        <v>568.4000244140625</v>
+        <v>562.2000122070312</v>
       </c>
       <c r="C1656" t="n">
-        <v>571.9000244140625</v>
+        <v>568.5</v>
       </c>
       <c r="D1656" t="n">
-        <v>563.5499877929688</v>
+        <v>553.7000122070312</v>
       </c>
       <c r="E1656" t="n">
-        <v>565.9500122070312</v>
+        <v>559.9000244140625</v>
       </c>
       <c r="F1656" t="n">
-        <v>565.9500122070312</v>
+        <v>559.9000244140625</v>
       </c>
       <c r="G1656" t="n">
-        <v>2026437</v>
+        <v>5079488</v>
       </c>
       <c r="H1656" t="n">
         <v>2024</v>
@@ -93182,7 +93180,7 @@
         <v>3</v>
       </c>
       <c r="J1656" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1656" t="n">
         <v>0</v>
@@ -93197,7 +93195,7 @@
         <v>12</v>
       </c>
       <c r="O1656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1656" t="n">
         <v>0</v>
@@ -93211,25 +93209,25 @@
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B1657" t="n">
-        <v>564</v>
+        <v>568.4000244140625</v>
       </c>
       <c r="C1657" t="n">
-        <v>568.9000244140625</v>
+        <v>571.9000244140625</v>
       </c>
       <c r="D1657" t="n">
-        <v>561.25</v>
+        <v>563.5499877929688</v>
       </c>
       <c r="E1657" t="n">
-        <v>564.25</v>
+        <v>565.9500122070312</v>
       </c>
       <c r="F1657" t="n">
-        <v>564.25</v>
+        <v>565.9500122070312</v>
       </c>
       <c r="G1657" t="n">
-        <v>2314067</v>
+        <v>2026437</v>
       </c>
       <c r="H1657" t="n">
         <v>2024</v>
@@ -93238,7 +93236,7 @@
         <v>3</v>
       </c>
       <c r="J1657" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1657" t="n">
         <v>0</v>
@@ -93267,25 +93265,25 @@
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
-        <v>45377</v>
+        <v>45373</v>
       </c>
       <c r="B1658" t="n">
+        <v>564</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>568.9000244140625</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>561.25</v>
+      </c>
+      <c r="E1658" t="n">
         <v>564.25</v>
       </c>
-      <c r="C1658" t="n">
-        <v>568.7999877929688</v>
-      </c>
-      <c r="D1658" t="n">
-        <v>561.7000122070312</v>
-      </c>
-      <c r="E1658" t="n">
-        <v>563</v>
-      </c>
       <c r="F1658" t="n">
-        <v>563</v>
+        <v>564.25</v>
       </c>
       <c r="G1658" t="n">
-        <v>1569118</v>
+        <v>2314067</v>
       </c>
       <c r="H1658" t="n">
         <v>2024</v>
@@ -93294,7 +93292,7 @@
         <v>3</v>
       </c>
       <c r="J1658" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1658" t="n">
         <v>0</v>
@@ -93306,7 +93304,7 @@
         <v>0</v>
       </c>
       <c r="N1658" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1658" t="n">
         <v>0</v>
@@ -93323,25 +93321,25 @@
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B1659" t="n">
-        <v>564.7999877929688</v>
+        <v>564.25</v>
       </c>
       <c r="C1659" t="n">
-        <v>566.7999877929688</v>
+        <v>568.7999877929688</v>
       </c>
       <c r="D1659" t="n">
-        <v>557.2000122070312</v>
+        <v>561.7000122070312</v>
       </c>
       <c r="E1659" t="n">
-        <v>561.5</v>
+        <v>563</v>
       </c>
       <c r="F1659" t="n">
-        <v>561.5</v>
+        <v>563</v>
       </c>
       <c r="G1659" t="n">
-        <v>4923826</v>
+        <v>1569118</v>
       </c>
       <c r="H1659" t="n">
         <v>2024</v>
@@ -93350,7 +93348,7 @@
         <v>3</v>
       </c>
       <c r="J1659" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1659" t="n">
         <v>0</v>
@@ -93379,25 +93377,25 @@
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B1660" t="n">
-        <v>563.8499755859375</v>
+        <v>564.7999877929688</v>
       </c>
       <c r="C1660" t="n">
-        <v>570.4500122070312</v>
+        <v>566.7999877929688</v>
       </c>
       <c r="D1660" t="n">
-        <v>561</v>
+        <v>557.2000122070312</v>
       </c>
       <c r="E1660" t="n">
-        <v>565</v>
+        <v>561.5</v>
       </c>
       <c r="F1660" t="n">
-        <v>565</v>
+        <v>561.5</v>
       </c>
       <c r="G1660" t="n">
-        <v>2782930</v>
+        <v>4923826</v>
       </c>
       <c r="H1660" t="n">
         <v>2024</v>
@@ -93406,7 +93404,7 @@
         <v>3</v>
       </c>
       <c r="J1660" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1660" t="n">
         <v>0</v>
@@ -93435,34 +93433,34 @@
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
-        <v>45383</v>
+        <v>45379</v>
       </c>
       <c r="B1661" t="n">
-        <v>570.9000244140625</v>
+        <v>563.8499755859375</v>
       </c>
       <c r="C1661" t="n">
-        <v>591.3499755859375</v>
+        <v>570.4500122070312</v>
       </c>
       <c r="D1661" t="n">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E1661" t="n">
-        <v>589.3499755859375</v>
+        <v>565</v>
       </c>
       <c r="F1661" t="n">
-        <v>589.3499755859375</v>
+        <v>565</v>
       </c>
       <c r="G1661" t="n">
-        <v>4223594</v>
+        <v>2782930</v>
       </c>
       <c r="H1661" t="n">
         <v>2024</v>
       </c>
       <c r="I1661" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1661" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1661" t="n">
         <v>0</v>
@@ -93474,7 +93472,7 @@
         <v>0</v>
       </c>
       <c r="N1661" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1661" t="n">
         <v>0</v>
@@ -93491,25 +93489,25 @@
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
-        <v>45384</v>
+        <v>45383</v>
       </c>
       <c r="B1662" t="n">
-        <v>593</v>
+        <v>570.9000244140625</v>
       </c>
       <c r="C1662" t="n">
-        <v>598.2000122070312</v>
+        <v>591.3499755859375</v>
       </c>
       <c r="D1662" t="n">
-        <v>583.25</v>
+        <v>567</v>
       </c>
       <c r="E1662" t="n">
-        <v>591.5999755859375</v>
+        <v>589.3499755859375</v>
       </c>
       <c r="F1662" t="n">
-        <v>591.5999755859375</v>
+        <v>589.3499755859375</v>
       </c>
       <c r="G1662" t="n">
-        <v>4018831</v>
+        <v>4223594</v>
       </c>
       <c r="H1662" t="n">
         <v>2024</v>
@@ -93518,7 +93516,7 @@
         <v>4</v>
       </c>
       <c r="J1662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1662" t="n">
         <v>0</v>
@@ -93547,25 +93545,25 @@
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B1663" t="n">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C1663" t="n">
-        <v>607.9000244140625</v>
+        <v>598.2000122070312</v>
       </c>
       <c r="D1663" t="n">
-        <v>576.6500244140625</v>
+        <v>583.25</v>
       </c>
       <c r="E1663" t="n">
-        <v>605.0499877929688</v>
+        <v>591.5999755859375</v>
       </c>
       <c r="F1663" t="n">
-        <v>605.0499877929688</v>
+        <v>591.5999755859375</v>
       </c>
       <c r="G1663" t="n">
-        <v>11124597</v>
+        <v>4018831</v>
       </c>
       <c r="H1663" t="n">
         <v>2024</v>
@@ -93574,7 +93572,7 @@
         <v>4</v>
       </c>
       <c r="J1663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1663" t="n">
         <v>0</v>
@@ -93603,25 +93601,25 @@
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B1664" t="n">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="C1664" t="n">
-        <v>639.9500122070312</v>
+        <v>607.9000244140625</v>
       </c>
       <c r="D1664" t="n">
-        <v>618.5</v>
+        <v>576.6500244140625</v>
       </c>
       <c r="E1664" t="n">
-        <v>620.9500122070312</v>
+        <v>605.0499877929688</v>
       </c>
       <c r="F1664" t="n">
-        <v>620.9500122070312</v>
+        <v>605.0499877929688</v>
       </c>
       <c r="G1664" t="n">
-        <v>12026382</v>
+        <v>11124597</v>
       </c>
       <c r="H1664" t="n">
         <v>2024</v>
@@ -93630,7 +93628,7 @@
         <v>4</v>
       </c>
       <c r="J1664" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1664" t="n">
         <v>0</v>
@@ -93659,25 +93657,25 @@
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B1665" t="n">
-        <v>624.9500122070312</v>
+        <v>620</v>
       </c>
       <c r="C1665" t="n">
-        <v>637</v>
+        <v>639.9500122070312</v>
       </c>
       <c r="D1665" t="n">
-        <v>614.4000244140625</v>
+        <v>618.5</v>
       </c>
       <c r="E1665" t="n">
-        <v>634.75</v>
+        <v>620.9500122070312</v>
       </c>
       <c r="F1665" t="n">
-        <v>634.75</v>
+        <v>620.9500122070312</v>
       </c>
       <c r="G1665" t="n">
-        <v>4502631</v>
+        <v>12026382</v>
       </c>
       <c r="H1665" t="n">
         <v>2024</v>
@@ -93686,7 +93684,7 @@
         <v>4</v>
       </c>
       <c r="J1665" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1665" t="n">
         <v>0</v>
@@ -93715,25 +93713,25 @@
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
       <c r="B1666" t="n">
-        <v>637.2000122070312</v>
+        <v>624.9500122070312</v>
       </c>
       <c r="C1666" t="n">
-        <v>637.2000122070312</v>
+        <v>637</v>
       </c>
       <c r="D1666" t="n">
-        <v>625.7999877929688</v>
+        <v>614.4000244140625</v>
       </c>
       <c r="E1666" t="n">
-        <v>633.9000244140625</v>
+        <v>634.75</v>
       </c>
       <c r="F1666" t="n">
-        <v>633.9000244140625</v>
+        <v>634.75</v>
       </c>
       <c r="G1666" t="n">
-        <v>3395600</v>
+        <v>4502631</v>
       </c>
       <c r="H1666" t="n">
         <v>2024</v>
@@ -93742,7 +93740,7 @@
         <v>4</v>
       </c>
       <c r="J1666" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K1666" t="n">
         <v>0</v>
@@ -93754,7 +93752,7 @@
         <v>0</v>
       </c>
       <c r="N1666" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1666" t="n">
         <v>0</v>
@@ -93763,7 +93761,7 @@
         <v>0</v>
       </c>
       <c r="Q1666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1666" t="n">
         <v>0</v>
@@ -93771,25 +93769,25 @@
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B1667" t="n">
-        <v>634</v>
+        <v>637.2000122070312</v>
       </c>
       <c r="C1667" t="n">
-        <v>645.5</v>
+        <v>637.2000122070312</v>
       </c>
       <c r="D1667" t="n">
-        <v>629.0999755859375</v>
+        <v>625.7999877929688</v>
       </c>
       <c r="E1667" t="n">
-        <v>632.25</v>
+        <v>633.9000244140625</v>
       </c>
       <c r="F1667" t="n">
-        <v>632.25</v>
+        <v>633.9000244140625</v>
       </c>
       <c r="G1667" t="n">
-        <v>1783075</v>
+        <v>3395600</v>
       </c>
       <c r="H1667" t="n">
         <v>2024</v>
@@ -93798,7 +93796,7 @@
         <v>4</v>
       </c>
       <c r="J1667" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1667" t="n">
         <v>0</v>
@@ -93813,13 +93811,13 @@
         <v>15</v>
       </c>
       <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
         <v>1</v>
-      </c>
-      <c r="P1667" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1667" t="n">
-        <v>0</v>
       </c>
       <c r="R1667" t="n">
         <v>0</v>
@@ -93827,25 +93825,25 @@
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B1668" t="n">
         <v>634</v>
       </c>
       <c r="C1668" t="n">
-        <v>637.9500122070312</v>
+        <v>645.5</v>
       </c>
       <c r="D1668" t="n">
-        <v>629.5</v>
+        <v>629.0999755859375</v>
       </c>
       <c r="E1668" t="n">
-        <v>634.4500122070312</v>
+        <v>632.25</v>
       </c>
       <c r="F1668" t="n">
-        <v>634.4500122070312</v>
+        <v>632.25</v>
       </c>
       <c r="G1668" t="n">
-        <v>2230548</v>
+        <v>1783075</v>
       </c>
       <c r="H1668" t="n">
         <v>2024</v>
@@ -93854,7 +93852,7 @@
         <v>4</v>
       </c>
       <c r="J1668" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1668" t="n">
         <v>0</v>
@@ -93869,7 +93867,7 @@
         <v>15</v>
       </c>
       <c r="O1668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1668" t="n">
         <v>0</v>
@@ -93883,25 +93881,25 @@
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="B1669" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C1669" t="n">
-        <v>644</v>
+        <v>637.9500122070312</v>
       </c>
       <c r="D1669" t="n">
-        <v>627.2999877929688</v>
+        <v>629.5</v>
       </c>
       <c r="E1669" t="n">
-        <v>638.75</v>
+        <v>634.4500122070312</v>
       </c>
       <c r="F1669" t="n">
-        <v>638.75</v>
+        <v>634.4500122070312</v>
       </c>
       <c r="G1669" t="n">
-        <v>2748417</v>
+        <v>2230548</v>
       </c>
       <c r="H1669" t="n">
         <v>2024</v>
@@ -93910,7 +93908,7 @@
         <v>4</v>
       </c>
       <c r="J1669" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K1669" t="n">
         <v>0</v>
@@ -93939,25 +93937,25 @@
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
       <c r="B1670" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="C1670" t="n">
-        <v>635.5499877929688</v>
+        <v>644</v>
       </c>
       <c r="D1670" t="n">
-        <v>618.5</v>
+        <v>627.2999877929688</v>
       </c>
       <c r="E1670" t="n">
-        <v>632.2999877929688</v>
+        <v>638.75</v>
       </c>
       <c r="F1670" t="n">
-        <v>632.2999877929688</v>
+        <v>638.75</v>
       </c>
       <c r="G1670" t="n">
-        <v>2868816</v>
+        <v>2748417</v>
       </c>
       <c r="H1670" t="n">
         <v>2024</v>
@@ -93966,19 +93964,19 @@
         <v>4</v>
       </c>
       <c r="J1670" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
         <v>15</v>
-      </c>
-      <c r="K1670" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1670" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1670" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1670" t="n">
-        <v>16</v>
       </c>
       <c r="O1670" t="n">
         <v>0</v>
@@ -93995,25 +93993,25 @@
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B1671" t="n">
-        <v>629.7000122070312</v>
+        <v>620</v>
       </c>
       <c r="C1671" t="n">
-        <v>629.7000122070312</v>
+        <v>635.5499877929688</v>
       </c>
       <c r="D1671" t="n">
-        <v>608.5499877929688</v>
+        <v>618.5</v>
       </c>
       <c r="E1671" t="n">
-        <v>613.4000244140625</v>
+        <v>632.2999877929688</v>
       </c>
       <c r="F1671" t="n">
-        <v>613.4000244140625</v>
+        <v>632.2999877929688</v>
       </c>
       <c r="G1671" t="n">
-        <v>4436478</v>
+        <v>2868816</v>
       </c>
       <c r="H1671" t="n">
         <v>2024</v>
@@ -94022,7 +94020,7 @@
         <v>4</v>
       </c>
       <c r="J1671" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1671" t="n">
         <v>0</v>
@@ -94051,25 +94049,25 @@
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
-        <v>45400</v>
+        <v>45398</v>
       </c>
       <c r="B1672" t="n">
-        <v>620.5</v>
+        <v>629.7000122070312</v>
       </c>
       <c r="C1672" t="n">
-        <v>631</v>
+        <v>629.7000122070312</v>
       </c>
       <c r="D1672" t="n">
-        <v>618</v>
+        <v>608.5499877929688</v>
       </c>
       <c r="E1672" t="n">
-        <v>621.0999755859375</v>
+        <v>613.4000244140625</v>
       </c>
       <c r="F1672" t="n">
-        <v>621.0999755859375</v>
+        <v>613.4000244140625</v>
       </c>
       <c r="G1672" t="n">
-        <v>3269307</v>
+        <v>4436478</v>
       </c>
       <c r="H1672" t="n">
         <v>2024</v>
@@ -94078,7 +94076,7 @@
         <v>4</v>
       </c>
       <c r="J1672" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1672" t="n">
         <v>0</v>
@@ -94107,25 +94105,25 @@
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B1673" t="n">
-        <v>617.8499755859375</v>
+        <v>620.5</v>
       </c>
       <c r="C1673" t="n">
-        <v>618.9500122070312</v>
+        <v>631</v>
       </c>
       <c r="D1673" t="n">
-        <v>607.5999755859375</v>
+        <v>618</v>
       </c>
       <c r="E1673" t="n">
-        <v>614.7000122070312</v>
+        <v>621.0999755859375</v>
       </c>
       <c r="F1673" t="n">
-        <v>614.7000122070312</v>
+        <v>621.0999755859375</v>
       </c>
       <c r="G1673" t="n">
-        <v>2304049</v>
+        <v>3269307</v>
       </c>
       <c r="H1673" t="n">
         <v>2024</v>
@@ -94134,7 +94132,7 @@
         <v>4</v>
       </c>
       <c r="J1673" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1673" t="n">
         <v>0</v>
@@ -94163,25 +94161,25 @@
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="B1674" t="n">
-        <v>623.7999877929688</v>
+        <v>617.8499755859375</v>
       </c>
       <c r="C1674" t="n">
-        <v>623.7999877929688</v>
+        <v>618.9500122070312</v>
       </c>
       <c r="D1674" t="n">
-        <v>603.6500244140625</v>
+        <v>607.5999755859375</v>
       </c>
       <c r="E1674" t="n">
-        <v>607.5999755859375</v>
+        <v>614.7000122070312</v>
       </c>
       <c r="F1674" t="n">
-        <v>607.5999755859375</v>
+        <v>614.7000122070312</v>
       </c>
       <c r="G1674" t="n">
-        <v>4363957</v>
+        <v>2304049</v>
       </c>
       <c r="H1674" t="n">
         <v>2024</v>
@@ -94190,7 +94188,7 @@
         <v>4</v>
       </c>
       <c r="J1674" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1674" t="n">
         <v>0</v>
@@ -94202,7 +94200,7 @@
         <v>0</v>
       </c>
       <c r="N1674" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1674" t="n">
         <v>0</v>
@@ -94219,25 +94217,25 @@
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B1675" t="n">
-        <v>614</v>
+        <v>623.7999877929688</v>
       </c>
       <c r="C1675" t="n">
-        <v>616</v>
+        <v>623.7999877929688</v>
       </c>
       <c r="D1675" t="n">
-        <v>607.3499755859375</v>
+        <v>603.6500244140625</v>
       </c>
       <c r="E1675" t="n">
-        <v>609.5</v>
+        <v>607.5999755859375</v>
       </c>
       <c r="F1675" t="n">
-        <v>609.5</v>
+        <v>607.5999755859375</v>
       </c>
       <c r="G1675" t="n">
-        <v>3056268</v>
+        <v>4363957</v>
       </c>
       <c r="H1675" t="n">
         <v>2024</v>
@@ -94246,7 +94244,7 @@
         <v>4</v>
       </c>
       <c r="J1675" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1675" t="n">
         <v>0</v>
@@ -94275,25 +94273,25 @@
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B1676" t="n">
-        <v>613.7000122070312</v>
+        <v>614</v>
       </c>
       <c r="C1676" t="n">
-        <v>622.0499877929688</v>
+        <v>616</v>
       </c>
       <c r="D1676" t="n">
-        <v>605.3499755859375</v>
+        <v>607.3499755859375</v>
       </c>
       <c r="E1676" t="n">
-        <v>618.9500122070312</v>
+        <v>609.5</v>
       </c>
       <c r="F1676" t="n">
-        <v>618.9500122070312</v>
+        <v>609.5</v>
       </c>
       <c r="G1676" t="n">
-        <v>5324514</v>
+        <v>3056268</v>
       </c>
       <c r="H1676" t="n">
         <v>2024</v>
@@ -94302,7 +94300,7 @@
         <v>4</v>
       </c>
       <c r="J1676" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1676" t="n">
         <v>0</v>
@@ -94331,25 +94329,25 @@
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B1677" t="n">
-        <v>613.9000244140625</v>
+        <v>613.7000122070312</v>
       </c>
       <c r="C1677" t="n">
-        <v>633.5999755859375</v>
+        <v>622.0499877929688</v>
       </c>
       <c r="D1677" t="n">
-        <v>605.75</v>
+        <v>605.3499755859375</v>
       </c>
       <c r="E1677" t="n">
-        <v>608.8499755859375</v>
+        <v>618.9500122070312</v>
       </c>
       <c r="F1677" t="n">
-        <v>608.8499755859375</v>
+        <v>618.9500122070312</v>
       </c>
       <c r="G1677" t="n">
-        <v>6257904</v>
+        <v>5324514</v>
       </c>
       <c r="H1677" t="n">
         <v>2024</v>
@@ -94358,7 +94356,7 @@
         <v>4</v>
       </c>
       <c r="J1677" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1677" t="n">
         <v>0</v>
@@ -94387,25 +94385,25 @@
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B1678" t="n">
-        <v>613.0999755859375</v>
+        <v>613.9000244140625</v>
       </c>
       <c r="C1678" t="n">
-        <v>613.4000244140625</v>
+        <v>633.5999755859375</v>
       </c>
       <c r="D1678" t="n">
-        <v>598.1500244140625</v>
+        <v>605.75</v>
       </c>
       <c r="E1678" t="n">
-        <v>599.7999877929688</v>
+        <v>608.8499755859375</v>
       </c>
       <c r="F1678" t="n">
-        <v>599.7999877929688</v>
+        <v>608.8499755859375</v>
       </c>
       <c r="G1678" t="n">
-        <v>2415552</v>
+        <v>6257904</v>
       </c>
       <c r="H1678" t="n">
         <v>2024</v>
@@ -94414,7 +94412,7 @@
         <v>4</v>
       </c>
       <c r="J1678" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1678" t="n">
         <v>0</v>
@@ -94429,13 +94427,13 @@
         <v>17</v>
       </c>
       <c r="O1678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1678" t="n">
         <v>0</v>
       </c>
       <c r="Q1678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R1678" t="n">
         <v>0</v>
@@ -94443,25 +94441,25 @@
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="B1679" t="n">
-        <v>625.5</v>
+        <v>613.0999755859375</v>
       </c>
       <c r="C1679" t="n">
-        <v>647.6500244140625</v>
+        <v>613.4000244140625</v>
       </c>
       <c r="D1679" t="n">
-        <v>612.25</v>
+        <v>598.1500244140625</v>
       </c>
       <c r="E1679" t="n">
-        <v>637.9500122070312</v>
+        <v>599.7999877929688</v>
       </c>
       <c r="F1679" t="n">
-        <v>637.9500122070312</v>
+        <v>599.7999877929688</v>
       </c>
       <c r="G1679" t="n">
-        <v>10201170</v>
+        <v>2415552</v>
       </c>
       <c r="H1679" t="n">
         <v>2024</v>
@@ -94470,7 +94468,7 @@
         <v>4</v>
       </c>
       <c r="J1679" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1679" t="n">
         <v>0</v>
@@ -94482,16 +94480,16 @@
         <v>0</v>
       </c>
       <c r="N1679" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1679" t="n">
         <v>0</v>
       </c>
       <c r="Q1679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R1679" t="n">
         <v>0</v>
@@ -94499,25 +94497,25 @@
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B1680" t="n">
-        <v>644.0999755859375</v>
+        <v>625.5</v>
       </c>
       <c r="C1680" t="n">
-        <v>645.2999877929688</v>
+        <v>647.6500244140625</v>
       </c>
       <c r="D1680" t="n">
-        <v>623.5499877929688</v>
+        <v>612.25</v>
       </c>
       <c r="E1680" t="n">
-        <v>633.5999755859375</v>
+        <v>637.9500122070312</v>
       </c>
       <c r="F1680" t="n">
-        <v>633.5999755859375</v>
+        <v>637.9500122070312</v>
       </c>
       <c r="G1680" t="n">
-        <v>7590857</v>
+        <v>10201170</v>
       </c>
       <c r="H1680" t="n">
         <v>2024</v>
@@ -94526,7 +94524,7 @@
         <v>4</v>
       </c>
       <c r="J1680" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1680" t="n">
         <v>0</v>
@@ -94555,34 +94553,34 @@
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="B1681" t="n">
-        <v>636.4000244140625</v>
+        <v>644.0999755859375</v>
       </c>
       <c r="C1681" t="n">
-        <v>649</v>
+        <v>645.2999877929688</v>
       </c>
       <c r="D1681" t="n">
-        <v>634</v>
+        <v>623.5499877929688</v>
       </c>
       <c r="E1681" t="n">
-        <v>645.2999877929688</v>
+        <v>633.5999755859375</v>
       </c>
       <c r="F1681" t="n">
-        <v>645.2999877929688</v>
+        <v>633.5999755859375</v>
       </c>
       <c r="G1681" t="n">
-        <v>4310835</v>
+        <v>7590857</v>
       </c>
       <c r="H1681" t="n">
         <v>2024</v>
       </c>
       <c r="I1681" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1681" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K1681" t="n">
         <v>0</v>
@@ -94611,25 +94609,25 @@
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B1682" t="n">
-        <v>648</v>
+        <v>636.4000244140625</v>
       </c>
       <c r="C1682" t="n">
-        <v>655.5499877929688</v>
+        <v>649</v>
       </c>
       <c r="D1682" t="n">
-        <v>639.5</v>
+        <v>634</v>
       </c>
       <c r="E1682" t="n">
-        <v>645</v>
+        <v>645.2999877929688</v>
       </c>
       <c r="F1682" t="n">
-        <v>645</v>
+        <v>645.2999877929688</v>
       </c>
       <c r="G1682" t="n">
-        <v>3662846</v>
+        <v>4310835</v>
       </c>
       <c r="H1682" t="n">
         <v>2024</v>
@@ -94638,7 +94636,7 @@
         <v>5</v>
       </c>
       <c r="J1682" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1682" t="n">
         <v>0</v>
@@ -94653,7 +94651,7 @@
         <v>18</v>
       </c>
       <c r="O1682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1682" t="n">
         <v>0</v>
@@ -94667,25 +94665,25 @@
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="B1683" t="n">
         <v>648</v>
       </c>
       <c r="C1683" t="n">
-        <v>655.4500122070312</v>
+        <v>655.5499877929688</v>
       </c>
       <c r="D1683" t="n">
-        <v>631.2999877929688</v>
+        <v>639.5</v>
       </c>
       <c r="E1683" t="n">
-        <v>633.9000244140625</v>
+        <v>645</v>
       </c>
       <c r="F1683" t="n">
-        <v>633.9000244140625</v>
+        <v>645</v>
       </c>
       <c r="G1683" t="n">
-        <v>2195074</v>
+        <v>3662846</v>
       </c>
       <c r="H1683" t="n">
         <v>2024</v>
@@ -94694,7 +94692,7 @@
         <v>5</v>
       </c>
       <c r="J1683" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K1683" t="n">
         <v>0</v>
@@ -94706,10 +94704,10 @@
         <v>0</v>
       </c>
       <c r="N1683" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1683" t="n">
         <v>0</v>
@@ -94723,25 +94721,25 @@
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B1684" t="n">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="C1684" t="n">
-        <v>645</v>
+        <v>655.4500122070312</v>
       </c>
       <c r="D1684" t="n">
-        <v>626.6500244140625</v>
+        <v>631.2999877929688</v>
       </c>
       <c r="E1684" t="n">
-        <v>630.1500244140625</v>
+        <v>633.9000244140625</v>
       </c>
       <c r="F1684" t="n">
-        <v>630.1500244140625</v>
+        <v>633.9000244140625</v>
       </c>
       <c r="G1684" t="n">
-        <v>1787126</v>
+        <v>2195074</v>
       </c>
       <c r="H1684" t="n">
         <v>2024</v>
@@ -94750,7 +94748,7 @@
         <v>5</v>
       </c>
       <c r="J1684" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1684" t="n">
         <v>0</v>
@@ -94779,25 +94777,25 @@
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="B1685" t="n">
+        <v>634</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>645</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>626.6500244140625</v>
+      </c>
+      <c r="E1685" t="n">
         <v>630.1500244140625</v>
       </c>
-      <c r="C1685" t="n">
-        <v>635.2000122070312</v>
-      </c>
-      <c r="D1685" t="n">
-        <v>620.0999755859375</v>
-      </c>
-      <c r="E1685" t="n">
-        <v>624.8499755859375</v>
-      </c>
       <c r="F1685" t="n">
-        <v>624.8499755859375</v>
+        <v>630.1500244140625</v>
       </c>
       <c r="G1685" t="n">
-        <v>3724624</v>
+        <v>1787126</v>
       </c>
       <c r="H1685" t="n">
         <v>2024</v>
@@ -94806,7 +94804,7 @@
         <v>5</v>
       </c>
       <c r="J1685" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1685" t="n">
         <v>0</v>
@@ -94835,25 +94833,25 @@
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
-        <v>45421</v>
+        <v>45420</v>
       </c>
       <c r="B1686" t="n">
-        <v>627</v>
+        <v>630.1500244140625</v>
       </c>
       <c r="C1686" t="n">
-        <v>636.2999877929688</v>
+        <v>635.2000122070312</v>
       </c>
       <c r="D1686" t="n">
-        <v>622.0499877929688</v>
+        <v>620.0999755859375</v>
       </c>
       <c r="E1686" t="n">
-        <v>627.9500122070312</v>
+        <v>624.8499755859375</v>
       </c>
       <c r="F1686" t="n">
-        <v>627.9500122070312</v>
+        <v>624.8499755859375</v>
       </c>
       <c r="G1686" t="n">
-        <v>1864280</v>
+        <v>3724624</v>
       </c>
       <c r="H1686" t="n">
         <v>2024</v>
@@ -94862,7 +94860,7 @@
         <v>5</v>
       </c>
       <c r="J1686" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1686" t="n">
         <v>0</v>
@@ -94891,25 +94889,25 @@
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B1687" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C1687" t="n">
-        <v>636</v>
+        <v>636.2999877929688</v>
       </c>
       <c r="D1687" t="n">
-        <v>625.7000122070312</v>
+        <v>622.0499877929688</v>
       </c>
       <c r="E1687" t="n">
-        <v>635.0999755859375</v>
+        <v>627.9500122070312</v>
       </c>
       <c r="F1687" t="n">
-        <v>635.0999755859375</v>
+        <v>627.9500122070312</v>
       </c>
       <c r="G1687" t="n">
-        <v>1602383</v>
+        <v>1864280</v>
       </c>
       <c r="H1687" t="n">
         <v>2024</v>
@@ -94918,7 +94916,7 @@
         <v>5</v>
       </c>
       <c r="J1687" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1687" t="n">
         <v>0</v>
@@ -94947,25 +94945,25 @@
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
-        <v>45425</v>
+        <v>45422</v>
       </c>
       <c r="B1688" t="n">
-        <v>635.9000244140625</v>
+        <v>630</v>
       </c>
       <c r="C1688" t="n">
         <v>636</v>
       </c>
       <c r="D1688" t="n">
-        <v>618.25</v>
+        <v>625.7000122070312</v>
       </c>
       <c r="E1688" t="n">
-        <v>633.8499755859375</v>
+        <v>635.0999755859375</v>
       </c>
       <c r="F1688" t="n">
-        <v>633.8499755859375</v>
+        <v>635.0999755859375</v>
       </c>
       <c r="G1688" t="n">
-        <v>2409926</v>
+        <v>1602383</v>
       </c>
       <c r="H1688" t="n">
         <v>2024</v>
@@ -94974,7 +94972,7 @@
         <v>5</v>
       </c>
       <c r="J1688" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1688" t="n">
         <v>0</v>
@@ -94986,7 +94984,7 @@
         <v>0</v>
       </c>
       <c r="N1688" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1688" t="n">
         <v>0</v>
@@ -95003,25 +95001,25 @@
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="B1689" t="n">
-        <v>635.0999755859375</v>
+        <v>635.9000244140625</v>
       </c>
       <c r="C1689" t="n">
-        <v>639.9000244140625</v>
+        <v>636</v>
       </c>
       <c r="D1689" t="n">
-        <v>627.5</v>
+        <v>618.25</v>
       </c>
       <c r="E1689" t="n">
-        <v>638.7000122070312</v>
+        <v>633.8499755859375</v>
       </c>
       <c r="F1689" t="n">
-        <v>638.7000122070312</v>
+        <v>633.8499755859375</v>
       </c>
       <c r="G1689" t="n">
-        <v>1212526</v>
+        <v>2409926</v>
       </c>
       <c r="H1689" t="n">
         <v>2024</v>
@@ -95030,7 +95028,7 @@
         <v>5</v>
       </c>
       <c r="J1689" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1689" t="n">
         <v>0</v>
@@ -95051,7 +95049,7 @@
         <v>0</v>
       </c>
       <c r="Q1689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1689" t="n">
         <v>0</v>
@@ -95059,25 +95057,25 @@
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B1690" t="n">
-        <v>642.4500122070312</v>
+        <v>635.0999755859375</v>
       </c>
       <c r="C1690" t="n">
-        <v>648.9000244140625</v>
+        <v>639.9000244140625</v>
       </c>
       <c r="D1690" t="n">
-        <v>616.8499755859375</v>
+        <v>627.5</v>
       </c>
       <c r="E1690" t="n">
-        <v>622.9500122070312</v>
+        <v>638.7000122070312</v>
       </c>
       <c r="F1690" t="n">
-        <v>622.9500122070312</v>
+        <v>638.7000122070312</v>
       </c>
       <c r="G1690" t="n">
-        <v>4654837</v>
+        <v>1212526</v>
       </c>
       <c r="H1690" t="n">
         <v>2024</v>
@@ -95086,7 +95084,7 @@
         <v>5</v>
       </c>
       <c r="J1690" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1690" t="n">
         <v>0</v>
@@ -95107,7 +95105,7 @@
         <v>0</v>
       </c>
       <c r="Q1690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1690" t="n">
         <v>0</v>
@@ -95115,25 +95113,25 @@
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B1691" t="n">
-        <v>626.4500122070312</v>
+        <v>642.4500122070312</v>
       </c>
       <c r="C1691" t="n">
-        <v>628.5</v>
+        <v>648.9000244140625</v>
       </c>
       <c r="D1691" t="n">
-        <v>615</v>
+        <v>616.8499755859375</v>
       </c>
       <c r="E1691" t="n">
-        <v>621.6500244140625</v>
+        <v>622.9500122070312</v>
       </c>
       <c r="F1691" t="n">
-        <v>621.6500244140625</v>
+        <v>622.9500122070312</v>
       </c>
       <c r="G1691" t="n">
-        <v>1768712</v>
+        <v>4654837</v>
       </c>
       <c r="H1691" t="n">
         <v>2024</v>
@@ -95142,7 +95140,7 @@
         <v>5</v>
       </c>
       <c r="J1691" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1691" t="n">
         <v>0</v>
@@ -95171,25 +95169,25 @@
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
-        <v>45429</v>
+        <v>45428</v>
       </c>
       <c r="B1692" t="n">
-        <v>625.25</v>
+        <v>626.4500122070312</v>
       </c>
       <c r="C1692" t="n">
-        <v>626.4000244140625</v>
+        <v>628.5</v>
       </c>
       <c r="D1692" t="n">
+        <v>615</v>
+      </c>
+      <c r="E1692" t="n">
         <v>621.6500244140625</v>
       </c>
-      <c r="E1692" t="n">
-        <v>624.3499755859375</v>
-      </c>
       <c r="F1692" t="n">
-        <v>624.3499755859375</v>
+        <v>621.6500244140625</v>
       </c>
       <c r="G1692" t="n">
-        <v>1761091</v>
+        <v>1768712</v>
       </c>
       <c r="H1692" t="n">
         <v>2024</v>
@@ -95198,7 +95196,7 @@
         <v>5</v>
       </c>
       <c r="J1692" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1692" t="n">
         <v>0</v>
@@ -95227,25 +95225,25 @@
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
-        <v>45433</v>
+        <v>45429</v>
       </c>
       <c r="B1693" t="n">
-        <v>625</v>
+        <v>625.25</v>
       </c>
       <c r="C1693" t="n">
-        <v>626</v>
+        <v>626.4000244140625</v>
       </c>
       <c r="D1693" t="n">
-        <v>612.4500122070312</v>
+        <v>621.6500244140625</v>
       </c>
       <c r="E1693" t="n">
-        <v>615.5</v>
+        <v>624.3499755859375</v>
       </c>
       <c r="F1693" t="n">
-        <v>615.5</v>
+        <v>624.3499755859375</v>
       </c>
       <c r="G1693" t="n">
-        <v>2515002</v>
+        <v>1761091</v>
       </c>
       <c r="H1693" t="n">
         <v>2024</v>
@@ -95254,7 +95252,7 @@
         <v>5</v>
       </c>
       <c r="J1693" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K1693" t="n">
         <v>0</v>
@@ -95266,7 +95264,7 @@
         <v>0</v>
       </c>
       <c r="N1693" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1693" t="n">
         <v>0</v>
@@ -95275,7 +95273,7 @@
         <v>0</v>
       </c>
       <c r="Q1693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R1693" t="n">
         <v>0</v>
@@ -95283,25 +95281,25 @@
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B1694" t="n">
-        <v>618.7999877929688</v>
+        <v>625</v>
       </c>
       <c r="C1694" t="n">
-        <v>620.5499877929688</v>
+        <v>626</v>
       </c>
       <c r="D1694" t="n">
-        <v>600.5499877929688</v>
+        <v>612.4500122070312</v>
       </c>
       <c r="E1694" t="n">
-        <v>603.2999877929688</v>
+        <v>615.5</v>
       </c>
       <c r="F1694" t="n">
-        <v>603.2999877929688</v>
+        <v>615.5</v>
       </c>
       <c r="G1694" t="n">
-        <v>4891339</v>
+        <v>2515002</v>
       </c>
       <c r="H1694" t="n">
         <v>2024</v>
@@ -95310,7 +95308,7 @@
         <v>5</v>
       </c>
       <c r="J1694" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1694" t="n">
         <v>0</v>
@@ -95325,13 +95323,13 @@
         <v>21</v>
       </c>
       <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
         <v>2</v>
-      </c>
-      <c r="P1694" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1694" t="n">
-        <v>0</v>
       </c>
       <c r="R1694" t="n">
         <v>0</v>
@@ -95339,25 +95337,25 @@
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B1695" t="n">
-        <v>607.7999877929688</v>
+        <v>618.7999877929688</v>
       </c>
       <c r="C1695" t="n">
-        <v>621.25</v>
+        <v>620.5499877929688</v>
       </c>
       <c r="D1695" t="n">
-        <v>605.2999877929688</v>
+        <v>600.5499877929688</v>
       </c>
       <c r="E1695" t="n">
-        <v>619.4500122070312</v>
+        <v>603.2999877929688</v>
       </c>
       <c r="F1695" t="n">
-        <v>619.4500122070312</v>
+        <v>603.2999877929688</v>
       </c>
       <c r="G1695" t="n">
-        <v>2263717</v>
+        <v>4891339</v>
       </c>
       <c r="H1695" t="n">
         <v>2024</v>
@@ -95366,7 +95364,7 @@
         <v>5</v>
       </c>
       <c r="J1695" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1695" t="n">
         <v>0</v>
@@ -95381,7 +95379,7 @@
         <v>21</v>
       </c>
       <c r="O1695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1695" t="n">
         <v>0</v>
@@ -95395,25 +95393,25 @@
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B1696" t="n">
-        <v>617.7999877929688</v>
+        <v>607.7999877929688</v>
       </c>
       <c r="C1696" t="n">
-        <v>623.0999755859375</v>
+        <v>621.25</v>
       </c>
       <c r="D1696" t="n">
-        <v>616.1500244140625</v>
+        <v>605.2999877929688</v>
       </c>
       <c r="E1696" t="n">
-        <v>620.6500244140625</v>
+        <v>619.4500122070312</v>
       </c>
       <c r="F1696" t="n">
-        <v>620.6500244140625</v>
+        <v>619.4500122070312</v>
       </c>
       <c r="G1696" t="n">
-        <v>1972136</v>
+        <v>2263717</v>
       </c>
       <c r="H1696" t="n">
         <v>2024</v>
@@ -95422,7 +95420,7 @@
         <v>5</v>
       </c>
       <c r="J1696" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1696" t="n">
         <v>0</v>
@@ -95451,25 +95449,25 @@
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
-        <v>45439</v>
+        <v>45436</v>
       </c>
       <c r="B1697" t="n">
-        <v>624.7999877929688</v>
+        <v>617.7999877929688</v>
       </c>
       <c r="C1697" t="n">
-        <v>641.75</v>
+        <v>623.0999755859375</v>
       </c>
       <c r="D1697" t="n">
-        <v>621</v>
+        <v>616.1500244140625</v>
       </c>
       <c r="E1697" t="n">
-        <v>634.5999755859375</v>
+        <v>620.6500244140625</v>
       </c>
       <c r="F1697" t="n">
-        <v>634.5999755859375</v>
+        <v>620.6500244140625</v>
       </c>
       <c r="G1697" t="n">
-        <v>5536936</v>
+        <v>1972136</v>
       </c>
       <c r="H1697" t="n">
         <v>2024</v>
@@ -95478,7 +95476,7 @@
         <v>5</v>
       </c>
       <c r="J1697" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K1697" t="n">
         <v>0</v>
@@ -95490,7 +95488,7 @@
         <v>0</v>
       </c>
       <c r="N1697" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1697" t="n">
         <v>0</v>
@@ -95507,25 +95505,25 @@
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B1698" t="n">
-        <v>638.4500122070312</v>
+        <v>624.7999877929688</v>
       </c>
       <c r="C1698" t="n">
-        <v>647.6500244140625</v>
+        <v>641.75</v>
       </c>
       <c r="D1698" t="n">
-        <v>630.5499877929688</v>
+        <v>621</v>
       </c>
       <c r="E1698" t="n">
-        <v>636.3499755859375</v>
+        <v>634.5999755859375</v>
       </c>
       <c r="F1698" t="n">
-        <v>636.3499755859375</v>
+        <v>634.5999755859375</v>
       </c>
       <c r="G1698" t="n">
-        <v>3797767</v>
+        <v>5536936</v>
       </c>
       <c r="H1698" t="n">
         <v>2024</v>
@@ -95534,7 +95532,7 @@
         <v>5</v>
       </c>
       <c r="J1698" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1698" t="n">
         <v>0</v>
@@ -95563,25 +95561,25 @@
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B1699" t="n">
+        <v>638.4500122070312</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>647.6500244140625</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>630.5499877929688</v>
+      </c>
+      <c r="E1699" t="n">
         <v>636.3499755859375</v>
       </c>
-      <c r="C1699" t="n">
-        <v>652.7999877929688</v>
-      </c>
-      <c r="D1699" t="n">
-        <v>633.0999755859375</v>
-      </c>
-      <c r="E1699" t="n">
-        <v>648.2999877929688</v>
-      </c>
       <c r="F1699" t="n">
-        <v>648.2999877929688</v>
+        <v>636.3499755859375</v>
       </c>
       <c r="G1699" t="n">
-        <v>5140162</v>
+        <v>3797767</v>
       </c>
       <c r="H1699" t="n">
         <v>2024</v>
@@ -95590,7 +95588,7 @@
         <v>5</v>
       </c>
       <c r="J1699" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1699" t="n">
         <v>0</v>
@@ -95619,25 +95617,25 @@
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B1700" t="n">
-        <v>646.9000244140625</v>
+        <v>636.3499755859375</v>
       </c>
       <c r="C1700" t="n">
-        <v>654.3499755859375</v>
+        <v>652.7999877929688</v>
       </c>
       <c r="D1700" t="n">
-        <v>636.0999755859375</v>
+        <v>633.0999755859375</v>
       </c>
       <c r="E1700" t="n">
-        <v>638.5999755859375</v>
+        <v>648.2999877929688</v>
       </c>
       <c r="F1700" t="n">
-        <v>638.5999755859375</v>
+        <v>648.2999877929688</v>
       </c>
       <c r="G1700" t="n">
-        <v>3971332</v>
+        <v>5140162</v>
       </c>
       <c r="H1700" t="n">
         <v>2024</v>
@@ -95646,7 +95644,7 @@
         <v>5</v>
       </c>
       <c r="J1700" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1700" t="n">
         <v>0</v>
@@ -95675,25 +95673,25 @@
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B1701" t="n">
-        <v>639.8499755859375</v>
+        <v>646.9000244140625</v>
       </c>
       <c r="C1701" t="n">
-        <v>655.3499755859375</v>
+        <v>654.3499755859375</v>
       </c>
       <c r="D1701" t="n">
-        <v>639.8499755859375</v>
+        <v>636.0999755859375</v>
       </c>
       <c r="E1701" t="n">
-        <v>653.0999755859375</v>
+        <v>638.5999755859375</v>
       </c>
       <c r="F1701" t="n">
-        <v>653.0999755859375</v>
+        <v>638.5999755859375</v>
       </c>
       <c r="G1701" t="n">
-        <v>24738361</v>
+        <v>3971332</v>
       </c>
       <c r="H1701" t="n">
         <v>2024</v>
@@ -95702,7 +95700,7 @@
         <v>5</v>
       </c>
       <c r="J1701" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1701" t="n">
         <v>0</v>
@@ -95731,34 +95729,34 @@
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
-        <v>45446</v>
+        <v>45443</v>
       </c>
       <c r="B1702" t="n">
-        <v>663.4000244140625</v>
+        <v>639.8499755859375</v>
       </c>
       <c r="C1702" t="n">
-        <v>667.9000244140625</v>
+        <v>655.3499755859375</v>
       </c>
       <c r="D1702" t="n">
-        <v>641.7999877929688</v>
+        <v>639.8499755859375</v>
       </c>
       <c r="E1702" t="n">
-        <v>644.5499877929688</v>
+        <v>653.0999755859375</v>
       </c>
       <c r="F1702" t="n">
-        <v>644.5499877929688</v>
+        <v>653.0999755859375</v>
       </c>
       <c r="G1702" t="n">
-        <v>7158268</v>
+        <v>24738361</v>
       </c>
       <c r="H1702" t="n">
         <v>2024</v>
       </c>
       <c r="I1702" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1702" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K1702" t="n">
         <v>0</v>
@@ -95770,7 +95768,7 @@
         <v>0</v>
       </c>
       <c r="N1702" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1702" t="n">
         <v>0</v>
@@ -95787,25 +95785,25 @@
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B1703" t="n">
-        <v>649.9500122070312</v>
+        <v>663.4000244140625</v>
       </c>
       <c r="C1703" t="n">
-        <v>649.9500122070312</v>
+        <v>667.9000244140625</v>
       </c>
       <c r="D1703" t="n">
-        <v>605.9000244140625</v>
+        <v>641.7999877929688</v>
       </c>
       <c r="E1703" t="n">
-        <v>628.75</v>
+        <v>644.5499877929688</v>
       </c>
       <c r="F1703" t="n">
-        <v>628.75</v>
+        <v>644.5499877929688</v>
       </c>
       <c r="G1703" t="n">
-        <v>3575414</v>
+        <v>7158268</v>
       </c>
       <c r="H1703" t="n">
         <v>2024</v>
@@ -95814,7 +95812,7 @@
         <v>6</v>
       </c>
       <c r="J1703" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1703" t="n">
         <v>0</v>
@@ -95843,25 +95841,25 @@
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="B1704" t="n">
-        <v>632</v>
+        <v>649.9500122070312</v>
       </c>
       <c r="C1704" t="n">
-        <v>688.9000244140625</v>
+        <v>649.9500122070312</v>
       </c>
       <c r="D1704" t="n">
-        <v>623.25</v>
+        <v>605.9000244140625</v>
       </c>
       <c r="E1704" t="n">
-        <v>669.5499877929688</v>
+        <v>628.75</v>
       </c>
       <c r="F1704" t="n">
-        <v>669.5499877929688</v>
+        <v>628.75</v>
       </c>
       <c r="G1704" t="n">
-        <v>8897937</v>
+        <v>3575414</v>
       </c>
       <c r="H1704" t="n">
         <v>2024</v>
@@ -95870,7 +95868,7 @@
         <v>6</v>
       </c>
       <c r="J1704" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1704" t="n">
         <v>0</v>
@@ -95885,7 +95883,7 @@
         <v>23</v>
       </c>
       <c r="O1704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1704" t="n">
         <v>0</v>
@@ -95899,25 +95897,25 @@
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B1705" t="n">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="C1705" t="n">
-        <v>678.5</v>
+        <v>688.9000244140625</v>
       </c>
       <c r="D1705" t="n">
-        <v>654</v>
+        <v>623.25</v>
       </c>
       <c r="E1705" t="n">
-        <v>660.5499877929688</v>
+        <v>669.5499877929688</v>
       </c>
       <c r="F1705" t="n">
-        <v>660.5499877929688</v>
+        <v>669.5499877929688</v>
       </c>
       <c r="G1705" t="n">
-        <v>2358058</v>
+        <v>8897937</v>
       </c>
       <c r="H1705" t="n">
         <v>2024</v>
@@ -95926,7 +95924,7 @@
         <v>6</v>
       </c>
       <c r="J1705" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1705" t="n">
         <v>0</v>
@@ -95941,39 +95939,39 @@
         <v>23</v>
       </c>
       <c r="O1705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
       <c r="R1705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B1706" t="n">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C1706" t="n">
-        <v>670.5</v>
+        <v>678.5</v>
       </c>
       <c r="D1706" t="n">
-        <v>660.4000244140625</v>
+        <v>654</v>
       </c>
       <c r="E1706" t="n">
-        <v>669</v>
+        <v>660.5499877929688</v>
       </c>
       <c r="F1706" t="n">
-        <v>669</v>
+        <v>660.5499877929688</v>
       </c>
       <c r="G1706" t="n">
-        <v>1336117</v>
+        <v>2358058</v>
       </c>
       <c r="H1706" t="n">
         <v>2024</v>
@@ -95982,7 +95980,7 @@
         <v>6</v>
       </c>
       <c r="J1706" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1706" t="n">
         <v>0</v>
@@ -96000,36 +95998,36 @@
         <v>0</v>
       </c>
       <c r="P1706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
       <c r="R1706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="B1707" t="n">
-        <v>669.2000122070312</v>
+        <v>663</v>
       </c>
       <c r="C1707" t="n">
-        <v>679.5</v>
+        <v>670.5</v>
       </c>
       <c r="D1707" t="n">
-        <v>648</v>
+        <v>660.4000244140625</v>
       </c>
       <c r="E1707" t="n">
-        <v>669.4500122070312</v>
+        <v>669</v>
       </c>
       <c r="F1707" t="n">
-        <v>669.4500122070312</v>
+        <v>669</v>
       </c>
       <c r="G1707" t="n">
-        <v>5309961</v>
+        <v>1336117</v>
       </c>
       <c r="H1707" t="n">
         <v>2024</v>
@@ -96038,7 +96036,7 @@
         <v>6</v>
       </c>
       <c r="J1707" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1707" t="n">
         <v>0</v>
@@ -96050,7 +96048,7 @@
         <v>0</v>
       </c>
       <c r="N1707" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1707" t="n">
         <v>0</v>
@@ -96067,25 +96065,25 @@
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="B1708" t="n">
-        <v>671</v>
+        <v>669.2000122070312</v>
       </c>
       <c r="C1708" t="n">
-        <v>677</v>
+        <v>679.5</v>
       </c>
       <c r="D1708" t="n">
-        <v>663.0499877929688</v>
+        <v>648</v>
       </c>
       <c r="E1708" t="n">
-        <v>671.5999755859375</v>
+        <v>669.4500122070312</v>
       </c>
       <c r="F1708" t="n">
-        <v>671.5999755859375</v>
+        <v>669.4500122070312</v>
       </c>
       <c r="G1708" t="n">
-        <v>1936660</v>
+        <v>5309961</v>
       </c>
       <c r="H1708" t="n">
         <v>2024</v>
@@ -96094,7 +96092,7 @@
         <v>6</v>
       </c>
       <c r="J1708" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1708" t="n">
         <v>0</v>
@@ -96123,25 +96121,25 @@
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B1709" t="n">
-        <v>674.8499755859375</v>
+        <v>671</v>
       </c>
       <c r="C1709" t="n">
-        <v>679.5999755859375</v>
+        <v>677</v>
       </c>
       <c r="D1709" t="n">
-        <v>663.2999877929688</v>
+        <v>663.0499877929688</v>
       </c>
       <c r="E1709" t="n">
-        <v>667.0499877929688</v>
+        <v>671.5999755859375</v>
       </c>
       <c r="F1709" t="n">
-        <v>667.0499877929688</v>
+        <v>671.5999755859375</v>
       </c>
       <c r="G1709" t="n">
-        <v>2701504</v>
+        <v>1936660</v>
       </c>
       <c r="H1709" t="n">
         <v>2024</v>
@@ -96150,7 +96148,7 @@
         <v>6</v>
       </c>
       <c r="J1709" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1709" t="n">
         <v>0</v>
@@ -96179,25 +96177,25 @@
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B1710" t="n">
+        <v>674.8499755859375</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>679.5999755859375</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>663.2999877929688</v>
+      </c>
+      <c r="E1710" t="n">
         <v>667.0499877929688</v>
       </c>
-      <c r="C1710" t="n">
-        <v>678.9500122070312</v>
-      </c>
-      <c r="D1710" t="n">
-        <v>666</v>
-      </c>
-      <c r="E1710" t="n">
-        <v>668.1500244140625</v>
-      </c>
       <c r="F1710" t="n">
-        <v>668.1500244140625</v>
+        <v>667.0499877929688</v>
       </c>
       <c r="G1710" t="n">
-        <v>1786679</v>
+        <v>2701504</v>
       </c>
       <c r="H1710" t="n">
         <v>2024</v>
@@ -96206,7 +96204,7 @@
         <v>6</v>
       </c>
       <c r="J1710" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1710" t="n">
         <v>0</v>
@@ -96235,25 +96233,25 @@
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B1711" t="n">
-        <v>672.6500244140625</v>
+        <v>667.0499877929688</v>
       </c>
       <c r="C1711" t="n">
-        <v>673.1500244140625</v>
+        <v>678.9500122070312</v>
       </c>
       <c r="D1711" t="n">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="E1711" t="n">
-        <v>661.25</v>
+        <v>668.1500244140625</v>
       </c>
       <c r="F1711" t="n">
-        <v>661.25</v>
+        <v>668.1500244140625</v>
       </c>
       <c r="G1711" t="n">
-        <v>2852003</v>
+        <v>1786679</v>
       </c>
       <c r="H1711" t="n">
         <v>2024</v>
@@ -96262,7 +96260,7 @@
         <v>6</v>
       </c>
       <c r="J1711" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1711" t="n">
         <v>0</v>
@@ -96291,25 +96289,25 @@
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="B1712" t="n">
-        <v>663.4500122070312</v>
+        <v>672.6500244140625</v>
       </c>
       <c r="C1712" t="n">
-        <v>671</v>
+        <v>673.1500244140625</v>
       </c>
       <c r="D1712" t="n">
-        <v>660.5499877929688</v>
+        <v>658</v>
       </c>
       <c r="E1712" t="n">
-        <v>664.5</v>
+        <v>661.25</v>
       </c>
       <c r="F1712" t="n">
-        <v>664.5</v>
+        <v>661.25</v>
       </c>
       <c r="G1712" t="n">
-        <v>2225645</v>
+        <v>2852003</v>
       </c>
       <c r="H1712" t="n">
         <v>2024</v>
@@ -96318,7 +96316,7 @@
         <v>6</v>
       </c>
       <c r="J1712" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K1712" t="n">
         <v>0</v>
@@ -96330,7 +96328,7 @@
         <v>0</v>
       </c>
       <c r="N1712" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1712" t="n">
         <v>0</v>
@@ -96347,25 +96345,25 @@
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="B1713" t="n">
-        <v>663</v>
+        <v>663.4500122070312</v>
       </c>
       <c r="C1713" t="n">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D1713" t="n">
-        <v>650</v>
+        <v>660.5499877929688</v>
       </c>
       <c r="E1713" t="n">
-        <v>656.9500122070312</v>
+        <v>664.5</v>
       </c>
       <c r="F1713" t="n">
-        <v>656.9500122070312</v>
+        <v>664.5</v>
       </c>
       <c r="G1713" t="n">
-        <v>19435956</v>
+        <v>2225645</v>
       </c>
       <c r="H1713" t="n">
         <v>2024</v>
@@ -96374,7 +96372,7 @@
         <v>6</v>
       </c>
       <c r="J1713" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1713" t="n">
         <v>0</v>
@@ -96403,25 +96401,25 @@
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
-        <v>45463</v>
+        <v>45462</v>
       </c>
       <c r="B1714" t="n">
-        <v>659.9000244140625</v>
+        <v>663</v>
       </c>
       <c r="C1714" t="n">
-        <v>672.4500122070312</v>
+        <v>676</v>
       </c>
       <c r="D1714" t="n">
-        <v>657.0999755859375</v>
+        <v>650</v>
       </c>
       <c r="E1714" t="n">
-        <v>666.75</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="F1714" t="n">
-        <v>666.75</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="G1714" t="n">
-        <v>2046499</v>
+        <v>19435956</v>
       </c>
       <c r="H1714" t="n">
         <v>2024</v>
@@ -96430,7 +96428,7 @@
         <v>6</v>
       </c>
       <c r="J1714" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1714" t="n">
         <v>0</v>
@@ -96459,25 +96457,25 @@
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B1715" t="n">
-        <v>669.9500122070312</v>
+        <v>659.9000244140625</v>
       </c>
       <c r="C1715" t="n">
-        <v>672.6500244140625</v>
+        <v>672.4500122070312</v>
       </c>
       <c r="D1715" t="n">
-        <v>666</v>
+        <v>657.0999755859375</v>
       </c>
       <c r="E1715" t="n">
-        <v>667.5999755859375</v>
+        <v>666.75</v>
       </c>
       <c r="F1715" t="n">
-        <v>667.5999755859375</v>
+        <v>666.75</v>
       </c>
       <c r="G1715" t="n">
-        <v>3781936</v>
+        <v>2046499</v>
       </c>
       <c r="H1715" t="n">
         <v>2024</v>
@@ -96486,7 +96484,7 @@
         <v>6</v>
       </c>
       <c r="J1715" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1715" t="n">
         <v>0</v>
@@ -96515,25 +96513,25 @@
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="B1716" t="n">
-        <v>660.25</v>
+        <v>669.9500122070312</v>
       </c>
       <c r="C1716" t="n">
-        <v>682.75</v>
+        <v>672.6500244140625</v>
       </c>
       <c r="D1716" t="n">
-        <v>638.5</v>
+        <v>666</v>
       </c>
       <c r="E1716" t="n">
-        <v>679.5</v>
+        <v>667.5999755859375</v>
       </c>
       <c r="F1716" t="n">
-        <v>679.5</v>
+        <v>667.5999755859375</v>
       </c>
       <c r="G1716" t="n">
-        <v>6994152</v>
+        <v>3781936</v>
       </c>
       <c r="H1716" t="n">
         <v>2024</v>
@@ -96542,7 +96540,7 @@
         <v>6</v>
       </c>
       <c r="J1716" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1716" t="n">
         <v>0</v>
@@ -96554,7 +96552,7 @@
         <v>0</v>
       </c>
       <c r="N1716" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O1716" t="n">
         <v>0</v>
@@ -96571,25 +96569,25 @@
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="B1717" t="n">
-        <v>683</v>
+        <v>660.25</v>
       </c>
       <c r="C1717" t="n">
-        <v>690.4000244140625</v>
+        <v>682.75</v>
       </c>
       <c r="D1717" t="n">
-        <v>673</v>
+        <v>638.5</v>
       </c>
       <c r="E1717" t="n">
-        <v>682.2000122070312</v>
+        <v>679.5</v>
       </c>
       <c r="F1717" t="n">
-        <v>682.2000122070312</v>
+        <v>679.5</v>
       </c>
       <c r="G1717" t="n">
-        <v>4463897</v>
+        <v>6994152</v>
       </c>
       <c r="H1717" t="n">
         <v>2024</v>
@@ -96598,7 +96596,7 @@
         <v>6</v>
       </c>
       <c r="J1717" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1717" t="n">
         <v>0</v>
@@ -96613,7 +96611,7 @@
         <v>26</v>
       </c>
       <c r="O1717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1717" t="n">
         <v>0</v>
@@ -96627,25 +96625,25 @@
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
-        <v>45469</v>
+        <v>45468</v>
       </c>
       <c r="B1718" t="n">
+        <v>683</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>690.4000244140625</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>673</v>
+      </c>
+      <c r="E1718" t="n">
         <v>682.2000122070312</v>
       </c>
-      <c r="C1718" t="n">
-        <v>700.9500122070312</v>
-      </c>
-      <c r="D1718" t="n">
-        <v>674.75</v>
-      </c>
-      <c r="E1718" t="n">
-        <v>692.4500122070312</v>
-      </c>
       <c r="F1718" t="n">
-        <v>692.4500122070312</v>
+        <v>682.2000122070312</v>
       </c>
       <c r="G1718" t="n">
-        <v>6725621</v>
+        <v>4463897</v>
       </c>
       <c r="H1718" t="n">
         <v>2024</v>
@@ -96654,7 +96652,7 @@
         <v>6</v>
       </c>
       <c r="J1718" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1718" t="n">
         <v>0</v>
@@ -96683,25 +96681,25 @@
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="B1719" t="n">
-        <v>691</v>
+        <v>682.2000122070312</v>
       </c>
       <c r="C1719" t="n">
-        <v>696</v>
+        <v>700.9500122070312</v>
       </c>
       <c r="D1719" t="n">
-        <v>661.2999877929688</v>
+        <v>674.75</v>
       </c>
       <c r="E1719" t="n">
-        <v>666.0999755859375</v>
+        <v>692.4500122070312</v>
       </c>
       <c r="F1719" t="n">
-        <v>666.0999755859375</v>
+        <v>692.4500122070312</v>
       </c>
       <c r="G1719" t="n">
-        <v>4949541</v>
+        <v>6725621</v>
       </c>
       <c r="H1719" t="n">
         <v>2024</v>
@@ -96710,7 +96708,7 @@
         <v>6</v>
       </c>
       <c r="J1719" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1719" t="n">
         <v>0</v>
@@ -96739,25 +96737,25 @@
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="B1720" t="n">
-        <v>670.0999755859375</v>
+        <v>691</v>
       </c>
       <c r="C1720" t="n">
-        <v>674.9000244140625</v>
+        <v>696</v>
       </c>
       <c r="D1720" t="n">
-        <v>668.1500244140625</v>
+        <v>661.2999877929688</v>
       </c>
       <c r="E1720" t="n">
-        <v>672.0499877929688</v>
+        <v>666.0999755859375</v>
       </c>
       <c r="F1720" t="n">
-        <v>672.0499877929688</v>
+        <v>666.0999755859375</v>
       </c>
       <c r="G1720" t="n">
-        <v>1932863</v>
+        <v>4949541</v>
       </c>
       <c r="H1720" t="n">
         <v>2024</v>
@@ -96766,7 +96764,7 @@
         <v>6</v>
       </c>
       <c r="J1720" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1720" t="n">
         <v>0</v>
@@ -96795,34 +96793,34 @@
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B1721" t="n">
+        <v>670.0999755859375</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>674.9000244140625</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>668.1500244140625</v>
+      </c>
+      <c r="E1721" t="n">
         <v>672.0499877929688</v>
       </c>
-      <c r="C1721" t="n">
-        <v>676.7000122070312</v>
-      </c>
-      <c r="D1721" t="n">
-        <v>665</v>
-      </c>
-      <c r="E1721" t="n">
-        <v>673.8499755859375</v>
-      </c>
       <c r="F1721" t="n">
-        <v>673.8499755859375</v>
+        <v>672.0499877929688</v>
       </c>
       <c r="G1721" t="n">
-        <v>1155952</v>
+        <v>1932863</v>
       </c>
       <c r="H1721" t="n">
         <v>2024</v>
       </c>
       <c r="I1721" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1721" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1721" t="n">
         <v>0</v>
@@ -96834,7 +96832,7 @@
         <v>0</v>
       </c>
       <c r="N1721" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O1721" t="n">
         <v>0</v>
@@ -96845,29 +96843,31 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
-        <v>45475</v>
+        <v>45474</v>
       </c>
       <c r="B1722" t="n">
-        <v>674.5499877929688</v>
+        <v>672.0499877929688</v>
       </c>
       <c r="C1722" t="n">
-        <v>679.5499877929688</v>
+        <v>676.7000122070312</v>
       </c>
       <c r="D1722" t="n">
-        <v>668.25</v>
+        <v>665</v>
       </c>
       <c r="E1722" t="n">
-        <v>673.2999877929688</v>
+        <v>673.8499755859375</v>
       </c>
       <c r="F1722" t="n">
-        <v>673.2999877929688</v>
+        <v>673.8499755859375</v>
       </c>
       <c r="G1722" t="n">
-        <v>1327498</v>
+        <v>1155952</v>
       </c>
       <c r="H1722" t="n">
         <v>2024</v>
@@ -96876,7 +96876,7 @@
         <v>7</v>
       </c>
       <c r="J1722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1722" t="n">
         <v>0</v>
@@ -96899,29 +96899,31 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="B1723" t="n">
-        <v>675.9500122070312</v>
+        <v>674.5499877929688</v>
       </c>
       <c r="C1723" t="n">
-        <v>682.2000122070312</v>
+        <v>679.5499877929688</v>
       </c>
       <c r="D1723" t="n">
-        <v>663</v>
+        <v>668.25</v>
       </c>
       <c r="E1723" t="n">
-        <v>666.25</v>
+        <v>673.2999877929688</v>
       </c>
       <c r="F1723" t="n">
-        <v>666.25</v>
+        <v>673.2999877929688</v>
       </c>
       <c r="G1723" t="n">
-        <v>3891265</v>
+        <v>1327498</v>
       </c>
       <c r="H1723" t="n">
         <v>2024</v>
@@ -96930,7 +96932,7 @@
         <v>7</v>
       </c>
       <c r="J1723" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1723" t="n">
         <v>0</v>
@@ -96953,29 +96955,31 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
-        <v>45477</v>
+        <v>45476</v>
       </c>
       <c r="B1724" t="n">
-        <v>669.3499755859375</v>
+        <v>675.9500122070312</v>
       </c>
       <c r="C1724" t="n">
-        <v>680</v>
+        <v>682.2000122070312</v>
       </c>
       <c r="D1724" t="n">
-        <v>661.7999877929688</v>
+        <v>663</v>
       </c>
       <c r="E1724" t="n">
-        <v>673.4500122070312</v>
+        <v>666.25</v>
       </c>
       <c r="F1724" t="n">
-        <v>673.4500122070312</v>
+        <v>666.25</v>
       </c>
       <c r="G1724" t="n">
-        <v>1223370</v>
+        <v>3891265</v>
       </c>
       <c r="H1724" t="n">
         <v>2024</v>
@@ -96984,7 +96988,7 @@
         <v>7</v>
       </c>
       <c r="J1724" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1724" t="n">
         <v>0</v>
@@ -97007,29 +97011,31 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
-        <v>45478</v>
+        <v>45477</v>
       </c>
       <c r="B1725" t="n">
-        <v>674</v>
+        <v>669.3499755859375</v>
       </c>
       <c r="C1725" t="n">
-        <v>678.2000122070312</v>
+        <v>680</v>
       </c>
       <c r="D1725" t="n">
-        <v>668.1500244140625</v>
+        <v>661.7999877929688</v>
       </c>
       <c r="E1725" t="n">
-        <v>672.5999755859375</v>
+        <v>673.4500122070312</v>
       </c>
       <c r="F1725" t="n">
-        <v>672.5999755859375</v>
+        <v>673.4500122070312</v>
       </c>
       <c r="G1725" t="n">
-        <v>1225014</v>
+        <v>1223370</v>
       </c>
       <c r="H1725" t="n">
         <v>2024</v>
@@ -97038,7 +97044,7 @@
         <v>7</v>
       </c>
       <c r="J1725" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1725" t="n">
         <v>0</v>
@@ -97061,7 +97067,119 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>674</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>678.2000122070312</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>668.1500244140625</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>672.5999755859375</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>672.5999755859375</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>1225014</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>667.9500122070312</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>668.25</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>639.0999755859375</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>642.7000122070312</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>642.7000122070312</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>6190936</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1727"/>
+  <dimension ref="A1:R1739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93037,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -96723,7 +96725,7 @@
         <v>26</v>
       </c>
       <c r="O1719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1719" t="n">
         <v>0</v>
@@ -97179,7 +97181,657 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>642.7000122070312</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>647.0499877929688</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>638.1500244140625</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>639.0394897460938</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>1436156</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>640.5999755859375</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>642.9500122070312</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>624.5499877929688</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>629.9500122070312</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>628.9554443359375</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>6039883</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>626</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>635.9500122070312</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>624.75</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>633.4000244140625</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>632.4000244140625</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>1710082</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>634</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>648.9000244140625</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>633.0499877929688</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>643.7999877929688</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>643.7999877929688</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>2044302</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>645</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>648.1500244140625</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>638.25</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>640.8499755859375</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>640.8499755859375</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>1861392</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>644</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>645.7000122070312</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>633.2000122070312</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>634.4500122070312</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>634.4500122070312</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>2089842</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>635</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>630</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>633.0499877929688</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>633.0499877929688</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>2224274</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>630.5</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>635.3499755859375</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>625.1500244140625</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>633.6500244140625</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>633.6500244140625</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>1321440</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>628</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>660.4000244140625</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>625</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>655.4000244140625</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>655.4000244140625</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>6529913</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>657</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>658.9000244140625</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>643.4500122070312</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>656.25</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>656.25</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>2321050</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>656.25</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>663.2999877929688</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>647.25</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>659.5499877929688</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>659.5499877929688</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>5455706</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>657.2999877929688</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>661.75</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>625.5499877929688</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>631.6500244140625</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>631.6500244140625</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>2398725</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1739"/>
+  <dimension ref="A1:R1748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97237,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97291,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97345,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>2</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97399,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97453,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97507,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97561,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97615,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97669,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97723,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97769,7 +97789,7 @@
         <v>30</v>
       </c>
       <c r="O1738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1738" t="n">
         <v>0</v>
@@ -97777,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97831,7 +97853,495 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>621</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>652.3499755859375</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>620.5499877929688</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>650.4000244140625</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>650.4000244140625</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>4555752</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>655</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>658.0999755859375</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>644.3499755859375</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>650.0499877929688</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>650.0499877929688</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>4793665</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>652</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>661.5</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>649.1500244140625</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>651.4500122070312</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>651.4500122070312</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>2007413</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>653.4500122070312</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>653.4500122070312</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>637.3499755859375</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>646.0499877929688</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>646.0499877929688</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>3723813</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>646.75</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>659.8499755859375</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>641.9500122070312</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>644.75</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>644.75</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>1637829</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>638</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>635.5</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>637.5999755859375</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>637.5999755859375</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>3036465</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>629.9000244140625</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>637.9000244140625</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>622.2999877929688</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>632</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>632</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>2173993</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>635.2999877929688</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>644.9000244140625</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>633</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>635.9000244140625</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>635.9000244140625</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>1635549</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>626.2999877929688</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>630.8499755859375</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>630.8499755859375</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>2592359</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1748"/>
+  <dimension ref="A1:R1754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97901,7 +97901,7 @@
         <v>30</v>
       </c>
       <c r="O1740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1740" t="n">
         <v>0</v>
@@ -97909,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97963,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98017,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98071,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98125,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98179,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98233,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98287,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98341,7 +98357,333 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>629</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>635.2999877929688</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>624.5499877929688</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>626.0999755859375</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>626.0999755859375</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>1374881</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>635</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>636</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>623.25</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>625.9500122070312</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>625.9500122070312</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>1145143</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>620.0999755859375</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>621.4000244140625</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>605.1500244140625</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>609.75</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>609.75</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>5707504</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>609.75</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>615.4500122070312</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>606.9000244140625</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>2326446</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>612</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>615.8499755859375</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>600.25</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>603.0499877929688</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>603.0499877929688</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>1823476</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>607</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>614</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>605.7999877929688</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>613.2000122070312</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>613.2000122070312</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>1265471</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1754"/>
+  <dimension ref="A1:R1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98413,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>2</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98467,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98521,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98575,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98629,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98683,7 +98693,279 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>614.0999755859375</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>622.5499877929688</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>615.25</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>615.25</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>2273232</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>621.4000244140625</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>626.0499877929688</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>618.6500244140625</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>621.1500244140625</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>621.1500244140625</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>2026046</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>618</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>627.5</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>625.2000122070312</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>625.2000122070312</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>3107738</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>632</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>637.3499755859375</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>629.2999877929688</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>633.4000244140625</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>633.4000244140625</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>1214623</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>630.25</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>636</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>622.9000244140625</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>625.7999877929688</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>625.7999877929688</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>1101323</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1759"/>
+  <dimension ref="A1:R1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98629,7 +98629,7 @@
         <v>33</v>
       </c>
       <c r="O1753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1753" t="n">
         <v>0</v>
@@ -98749,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98803,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98857,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98911,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98965,7 +98973,225 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>631.75</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>639.0499877929688</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>629</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>2556753</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>639.25</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>639.25</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>632.0999755859375</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>635.0999755859375</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>635.0999755859375</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>1239139</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>633.1500244140625</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>636.75</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>625.8499755859375</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>632.5499877929688</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>632.5499877929688</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>1975857</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>631</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>649.4000244140625</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>630.2000122070312</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>640.3499755859375</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>640.3499755859375</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>3766340</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1763"/>
+  <dimension ref="A1:R1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99029,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99083,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99137,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99191,7 +99197,333 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>697</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>688.7000122070312</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>688.7000122070312</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>16426385</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>684.9500122070312</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>693.7999877929688</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>679.2000122070312</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>680.7999877929688</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>680.7999877929688</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>3223654</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>679</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>687.8499755859375</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>672</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>674.25</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>674.25</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>4005570</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>680</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>692.5999755859375</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>671.0999755859375</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>687.75</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>687.75</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>5338608</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>702</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>722.8499755859375</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>694.25</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>702.9000244140625</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>702.9000244140625</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>7485499</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>702</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>712.75</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>703</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>703</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>3843300</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1769"/>
+  <dimension ref="A1:R1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99253,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>1</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99307,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99361,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99415,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99469,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99523,7 +99533,279 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>705</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>716.75</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>696.8499755859375</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>3856445</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>724.5</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>713</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>718.2000122070312</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>718.2000122070312</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>2148085</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>718.2000122070312</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>726.9500122070312</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>713.1500244140625</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>722.25</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>722.25</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>2745980</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>727.8499755859375</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>727.8499755859375</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>717.7999877929688</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>720.5</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>720.5</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>969180</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>723</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>728.6500244140625</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>717.25</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>722.9000244140625</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>722.9000244140625</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>1230839</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1774"/>
+  <dimension ref="A1:R1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99589,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99643,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99697,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99751,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99805,7 +99813,279 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>727.0499877929688</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>710.5499877929688</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>1580582</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>717.7999877929688</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>714.4500122070312</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>719.4500122070312</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>719.4500122070312</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>969835</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>727.6500244140625</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>715.2000122070312</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>724.25</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>724.25</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>1822792</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>730</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>755.4000244140625</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>725</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>752.5</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>752.5</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>6130072</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>752.5</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>754.9000244140625</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>731.2999877929688</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>731.2999877929688</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>2770534</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99869,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99923,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99977,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100031,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100085,7 +100093,279 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>732</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>738.2999877929688</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>723.8499755859375</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>735.75</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>735.75</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>1560148</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>736</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>740.4000244140625</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>730.2999877929688</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>736.2000122070312</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>736.2000122070312</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>1678368</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>736.2000122070312</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>741.9000244140625</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>727.6500244140625</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>731.4000244140625</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>731.4000244140625</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>2597471</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>732.2000122070312</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>738</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>729.5</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>2158790</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>735.2000122070312</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>726.5</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>2788574</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1784"/>
+  <dimension ref="A1:R1788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100029,7 +100029,7 @@
         <v>38</v>
       </c>
       <c r="O1778" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1778" t="n">
         <v>0</v>
@@ -100149,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100203,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100257,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100311,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100365,7 +100373,225 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>743.9000244140625</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>720</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>740.2000122070312</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>740.2000122070312</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>2372518</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>740.0499877929688</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>748.1500244140625</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>730.25</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>732.7000122070312</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>732.7000122070312</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>1430628</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>723.0499877929688</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>735.6500244140625</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>723.0499877929688</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>731.7000122070312</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>731.7000122070312</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>1821086</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>727</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>744.6500244140625</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>716.9000244140625</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>2161429</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1788"/>
+  <dimension ref="A1:R1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100429,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100483,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100537,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100591,7 +100597,279 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>726.0999755859375</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>722</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>733</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>733</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>3956104</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>733</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>735.5999755859375</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>721.5</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>727.3499755859375</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>727.3499755859375</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>1285008</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>728.9500122070312</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>731.8499755859375</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>703.2999877929688</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>705.2999877929688</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>705.2999877929688</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>3300198</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>711.5</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>714.9000244140625</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>698.0999755859375</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>699.9500122070312</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>699.9500122070312</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>1055278</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>703.7999877929688</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>706.5499877929688</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>688.75</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>690.4000244140625</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>690.4000244140625</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>801360</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1793"/>
+  <dimension ref="A1:R1798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100653,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>2</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100707,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100761,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100815,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100869,7 +100877,279 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>693.5999755859375</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>708.0999755859375</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>682.9000244140625</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>701</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>701</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>1873286</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>704</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>704.9500122070312</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>690.6500244140625</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>695.7999877929688</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>695.7999877929688</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>527544</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>691.0999755859375</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>698.3499755859375</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>684.4000244140625</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>696.4500122070312</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>696.4500122070312</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>1327184</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>699</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>702.4000244140625</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>684.2999877929688</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>686.9500122070312</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>686.9500122070312</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>323933</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>683.0499877929688</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>676.5</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>683.6500244140625</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>683.6500244140625</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>920058</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1798"/>
+  <dimension ref="A1:R1803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100933,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100987,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101041,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101095,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101149,7 +101157,279 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>684.3499755859375</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>688.75</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>661.25</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>664.8499755859375</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>664.8499755859375</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>2161816</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>664.8499755859375</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>669.4000244140625</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>636.0999755859375</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>1318131</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>655.4500122070312</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>630.0499877929688</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>652.0499877929688</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>652.0499877929688</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>2498843</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>682.9000244140625</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>641.7000122070312</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>645.6500244140625</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>645.6500244140625</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>5123554</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>599.5499877929688</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>6949269</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1803"/>
+  <dimension ref="A1:R1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101213,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101267,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101321,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101375,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101429,7 +101437,225 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>622.6500244140625</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>602.6500244140625</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>620</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>3367259</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>621</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>1359311</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>625.6500244140625</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>604</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>609.4000244140625</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>609.4000244140625</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>5253691</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>608.8499755859375</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>616</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>606.1500244140625</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>612.4500122070312</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>612.4500122070312</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>2134118</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1807"/>
+  <dimension ref="A1:R1813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101493,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101547,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101601,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101655,7 +101661,333 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>617.9000244140625</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>621</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>615.6500244140625</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>617.3499755859375</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>617.3499755859375</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>180971</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>628.4000244140625</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>616.4000244140625</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>625.4500122070312</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>625.4500122070312</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>3687616</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>624.9500122070312</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>605.25</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>613.7999877929688</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>613.7999877929688</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>2133792</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>618</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>619.75</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>606.5499877929688</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>2860212</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>614</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>614.4000244140625</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>601.5</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>602.2999877929688</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>602.2999877929688</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>1213518</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>603</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>606.8499755859375</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>579</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>580.6500244140625</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>580.6500244140625</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>2486098</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1813"/>
+  <dimension ref="A1:R1817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101717,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101771,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101825,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101879,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101933,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101987,7 +101997,225 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>581</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>581.9000244140625</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>569.25</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>576.0499877929688</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>576.0499877929688</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>2610819</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>577.0499877929688</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>582</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>573.0499877929688</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>579.25</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>579.25</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>1281942</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>576.6500244140625</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>578.9500122070312</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>557.25</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>560.7999877929688</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>560.7999877929688</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>4788121</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>562.5</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>575.4000244140625</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>562.5</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>573.9000244140625</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>573.9000244140625</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>1722187</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1817"/>
+  <dimension ref="A1:R1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102053,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102107,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102161,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102215,7 +102221,225 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>574</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>583.1500244140625</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>570.25</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>579</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>579</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>2176589</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>575.0499877929688</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>597.0999755859375</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>575.0499877929688</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>591</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>591</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>3260155</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>589.2000122070312</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>595.6500244140625</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>581.0499877929688</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>593.9000244140625</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>593.9000244140625</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>1840597</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>593.9500122070312</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>597</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>590.7000122070312</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>1400227</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1821"/>
+  <dimension ref="A1:R1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102157,7 +102157,7 @@
         <v>46</v>
       </c>
       <c r="O1816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1816" t="n">
         <v>0</v>
@@ -102277,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102331,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102385,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102439,7 +102445,279 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>604</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>604.4000244140625</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>593.0999755859375</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>596.2999877929688</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>596.2999877929688</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>3793270</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>596.9000244140625</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>596.9000244140625</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>587.1500244140625</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>591.5999755859375</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>591.5999755859375</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>1829479</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>594.3499755859375</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>584.0999755859375</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>589.7999877929688</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>589.7999877929688</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>3177623</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>590.7000122070312</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>593</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>584.7000122070312</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>585.7999877929688</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>585.7999877929688</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>1591285</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>587</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>591.75</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>578.4000244140625</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>583.3499755859375</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>583.3499755859375</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>2005538</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1826"/>
+  <dimension ref="A1:R1831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102501,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102555,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102609,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102663,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102717,7 +102725,279 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>586</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>586</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>577.1500244140625</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>581.5999755859375</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>581.5999755859375</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>2248745</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>583.75</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>598.5999755859375</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>582.0999755859375</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>594.8499755859375</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>594.8499755859375</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>3487471</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>597.8499755859375</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>603.75</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>595.6500244140625</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>595.6500244140625</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>2505941</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>598.7000122070312</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>591.5999755859375</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>597.75</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>597.75</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>2009229</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>602</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>602</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>585.5499877929688</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>587.4000244140625</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>587.4000244140625</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>2744272</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1831"/>
+  <dimension ref="A1:R1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102781,7 +102781,9 @@
       <c r="Q1827" t="n">
         <v>1</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102835,7 +102837,9 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -102889,7 +102893,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102943,7 +102949,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -102997,7 +103005,529 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>587.9500122070312</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>591.5</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>580.4000244140625</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>581.2000122070312</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>1034189</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>584.0499877929688</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>592.9000244140625</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>581.4500122070312</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>591.2999877929688</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>1159650</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>588.0999755859375</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>590.0999755859375</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>1875206</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>591.5</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>595.2000122070312</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>586.4500122070312</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="n">
+        <v>1438341</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>588</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>588.75</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>574.2999877929688</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>584.5499877929688</v>
+      </c>
+      <c r="F1836" t="inlineStr"/>
+      <c r="G1836" t="n">
+        <v>1412657</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>586.0999755859375</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>578.1500244140625</v>
+      </c>
+      <c r="F1837" t="inlineStr"/>
+      <c r="G1837" t="n">
+        <v>1123451</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>579.75</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>580</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>561.2999877929688</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>563.1500244140625</v>
+      </c>
+      <c r="F1838" t="inlineStr"/>
+      <c r="G1838" t="n">
+        <v>1658082</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>561.1500244140625</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>567.2999877929688</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>555.7999877929688</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>558.3499755859375</v>
+      </c>
+      <c r="F1839" t="inlineStr"/>
+      <c r="G1839" t="n">
+        <v>1223019</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>554</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>540.7999877929688</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>548.7000122070312</v>
+      </c>
+      <c r="F1840" t="inlineStr"/>
+      <c r="G1840" t="n">
+        <v>2328195</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>548.75</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>554.7999877929688</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>534.4500122070312</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>537.5999755859375</v>
+      </c>
+      <c r="F1841" t="inlineStr"/>
+      <c r="G1841" t="n">
+        <v>2499941</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1841"/>
+  <dimension ref="A1:R1845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103059,7 +103059,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103111,7 +103113,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103163,7 +103167,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103215,7 +103221,9 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
@@ -103267,7 +103275,9 @@
       <c r="Q1836" t="n">
         <v>0</v>
       </c>
-      <c r="R1836" t="inlineStr"/>
+      <c r="R1836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
@@ -103319,7 +103329,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103371,7 +103383,9 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
@@ -103423,7 +103437,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103475,7 +103491,9 @@
       <c r="Q1840" t="n">
         <v>0</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
@@ -103527,7 +103545,217 @@
       <c r="Q1841" t="n">
         <v>0</v>
       </c>
-      <c r="R1841" t="inlineStr"/>
+      <c r="R1841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>542</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>551.7999877929688</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>539.0499877929688</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>549.2000122070312</v>
+      </c>
+      <c r="F1842" t="inlineStr"/>
+      <c r="G1842" t="n">
+        <v>1791145</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>547</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>557.5999755859375</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>543</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>556.1500244140625</v>
+      </c>
+      <c r="F1843" t="inlineStr"/>
+      <c r="G1843" t="n">
+        <v>2245915</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1843" t="inlineStr"/>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>554.5999755859375</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>557.8499755859375</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>546.2000122070312</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>548.2999877929688</v>
+      </c>
+      <c r="F1844" t="inlineStr"/>
+      <c r="G1844" t="n">
+        <v>1104075</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>548.75</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>554.5499877929688</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>547.25</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>552.2000122070312</v>
+      </c>
+      <c r="F1845" t="inlineStr"/>
+      <c r="G1845" t="n">
+        <v>481139</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1845" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1845"/>
+  <dimension ref="A1:R1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103599,7 +103599,9 @@
       <c r="Q1842" t="n">
         <v>0</v>
       </c>
-      <c r="R1842" t="inlineStr"/>
+      <c r="R1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -103651,7 +103653,9 @@
       <c r="Q1843" t="n">
         <v>0</v>
       </c>
-      <c r="R1843" t="inlineStr"/>
+      <c r="R1843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
@@ -103703,7 +103707,9 @@
       <c r="Q1844" t="n">
         <v>0</v>
       </c>
-      <c r="R1844" t="inlineStr"/>
+      <c r="R1844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
@@ -103755,7 +103761,269 @@
       <c r="Q1845" t="n">
         <v>0</v>
       </c>
-      <c r="R1845" t="inlineStr"/>
+      <c r="R1845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>552</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>591.5</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>546.5499877929688</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>577.2000122070312</v>
+      </c>
+      <c r="F1846" t="inlineStr"/>
+      <c r="G1846" t="n">
+        <v>6457071</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>561.9500122070312</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>563.9000244140625</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>546.5499877929688</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>559.0999755859375</v>
+      </c>
+      <c r="F1847" t="inlineStr"/>
+      <c r="G1847" t="n">
+        <v>3366983</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>556</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>573.9500122070312</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>554.4000244140625</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>568.5499877929688</v>
+      </c>
+      <c r="F1848" t="inlineStr"/>
+      <c r="G1848" t="n">
+        <v>2127349</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>569.75</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>572.4500122070312</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>562.0499877929688</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>571</v>
+      </c>
+      <c r="F1849" t="inlineStr"/>
+      <c r="G1849" t="n">
+        <v>1440790</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>568.2999877929688</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>568.2999877929688</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>573.5499877929688</v>
+      </c>
+      <c r="F1850" t="inlineStr"/>
+      <c r="G1850" t="n">
+        <v>2403117</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1850" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1850"/>
+  <dimension ref="A1:R1851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103537,7 +103537,7 @@
         <v>51</v>
       </c>
       <c r="O1841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1841" t="n">
         <v>0</v>
@@ -103815,7 +103815,9 @@
       <c r="Q1846" t="n">
         <v>0</v>
       </c>
-      <c r="R1846" t="inlineStr"/>
+      <c r="R1846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
@@ -103867,7 +103869,9 @@
       <c r="Q1847" t="n">
         <v>0</v>
       </c>
-      <c r="R1847" t="inlineStr"/>
+      <c r="R1847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
@@ -103919,7 +103923,9 @@
       <c r="Q1848" t="n">
         <v>0</v>
       </c>
-      <c r="R1848" t="inlineStr"/>
+      <c r="R1848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
@@ -103971,7 +103977,9 @@
       <c r="Q1849" t="n">
         <v>0</v>
       </c>
-      <c r="R1849" t="inlineStr"/>
+      <c r="R1849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
@@ -104023,7 +104031,61 @@
       <c r="Q1850" t="n">
         <v>0</v>
       </c>
-      <c r="R1850" t="inlineStr"/>
+      <c r="R1850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>590.9000244140625</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>592.5499877929688</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>553.25</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>560.25</v>
+      </c>
+      <c r="F1851" t="inlineStr"/>
+      <c r="G1851" t="n">
+        <v>3254095</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1851" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1851" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AUBANK.NS.xlsx
+++ b/stock_historical_data/1d/AUBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1851"/>
+  <dimension ref="A1:R1860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104085,7 +104085,477 @@
       <c r="Q1851" t="n">
         <v>0</v>
       </c>
-      <c r="R1851" t="inlineStr"/>
+      <c r="R1851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>561.9000244140625</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>570.25</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>560.5</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>567.9000244140625</v>
+      </c>
+      <c r="F1852" t="inlineStr"/>
+      <c r="G1852" t="n">
+        <v>1344308</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1852" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1852" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1852" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1852" t="inlineStr"/>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>567.9000244140625</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>569.7999877929688</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>556.5499877929688</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>566.4500122070312</v>
+      </c>
+      <c r="F1853" t="inlineStr"/>
+      <c r="G1853" t="n">
+        <v>2126970</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1853" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1853" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1853" t="inlineStr"/>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>566.9500122070312</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>573.4000244140625</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>563.4500122070312</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>570.0499877929688</v>
+      </c>
+      <c r="F1854" t="inlineStr"/>
+      <c r="G1854" t="n">
+        <v>3212356</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1854" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1854" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1854" t="inlineStr"/>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>570.0499877929688</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>583</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>563.7999877929688</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>575.1500244140625</v>
+      </c>
+      <c r="F1855" t="inlineStr"/>
+      <c r="G1855" t="n">
+        <v>4737367</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1855" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1855" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1855" t="inlineStr"/>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>569.9500122070312</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>571.9500122070312</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>554.6500244140625</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>560.2999877929688</v>
+      </c>
+      <c r="F1856" t="inlineStr"/>
+      <c r="G1856" t="n">
+        <v>3711095</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1856" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1856" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1856" t="inlineStr"/>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>564.0499877929688</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>581.6500244140625</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>564</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>575.0999755859375</v>
+      </c>
+      <c r="F1857" t="inlineStr"/>
+      <c r="G1857" t="n">
+        <v>3979231</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1857" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1857" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1857" t="inlineStr"/>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>576.9500122070312</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>587.9500122070312</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>574.4500122070312</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>586.9500122070312</v>
+      </c>
+      <c r="F1858" t="inlineStr"/>
+      <c r="G1858" t="n">
+        <v>1782010</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1858" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1858" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1858" t="inlineStr"/>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>590.7999877929688</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>603.4000244140625</v>
+      </c>
+      <c r="F1859" t="inlineStr"/>
+      <c r="G1859" t="n">
+        <v>4767863</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1859" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1859" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1859" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1859" t="inlineStr"/>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1860" t="n">
+        <v>603</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>606.2000122070312</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>597.5999755859375</v>
+      </c>
+      <c r="F1860" t="inlineStr"/>
+      <c r="G1860" t="n">
+        <v>2053823</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1860" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1860" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1860" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1860" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
